--- a/src/data/Users-MarmaForm2.xlsx
+++ b/src/data/Users-MarmaForm2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -507,7 +507,7 @@
       <c r="A3" t="str">
         <v>Joe</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>41093.22928240741</v>
       </c>
       <c r="C3" t="str">
@@ -549,13 +549,113 @@
       <c r="O3" t="str">
         <v>I accept the terms</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
+        <v>45626.22928240741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="B4">
+        <v>41093.22928240741</v>
+      </c>
+      <c r="C4" t="str">
+        <v>354685465465</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sam@example.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>https://res.cloudinary.com/dafvs0rrl/image/upload/v1733115015/emhqs4bvgorfc9edqvpd.png</v>
+      </c>
+      <c r="F4" t="str">
+        <v>keeper</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Left-handed batsman</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Off-spin</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Power hitting</v>
+      </c>
+      <c r="J4" t="str">
+        <v>XL</v>
+      </c>
+      <c r="K4" t="str">
+        <v>yes</v>
+      </c>
+      <c r="L4" t="str">
+        <v>12345698</v>
+      </c>
+      <c r="M4" t="str">
+        <v>5464659787</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Sachin</v>
+      </c>
+      <c r="O4" t="str">
+        <v>I accept the terms</v>
+      </c>
+      <c r="P4">
+        <v>45626.22928240741</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>james</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41093.22928240741</v>
+      </c>
+      <c r="C5" t="str">
+        <v>354685465465</v>
+      </c>
+      <c r="D5" t="str">
+        <v>james@example.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://res.cloudinary.com/dafvs0rrl/image/upload/v1733117181/fkchlx0zctgcqrf5uhw0.png</v>
+      </c>
+      <c r="F5" t="str">
+        <v>keeper</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Left-handed batsman</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Off-spin</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Power hitting</v>
+      </c>
+      <c r="J5" t="str">
+        <v>XL</v>
+      </c>
+      <c r="K5" t="str">
+        <v>yes</v>
+      </c>
+      <c r="L5" t="str">
+        <v>12345698</v>
+      </c>
+      <c r="M5" t="str">
+        <v>5464659787</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Sachin</v>
+      </c>
+      <c r="O5" t="str">
+        <v>I accept the terms</v>
+      </c>
+      <c r="P5" s="1">
         <v>45626.22928240741</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P5"/>
   </ignoredErrors>
 </worksheet>
 </file>